--- a/StudyRoomProj/DataTable/RoomData.xlsx
+++ b/StudyRoomProj/DataTable/RoomData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmdgh\Desktop\nusang\StudyRoomProj\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B31924-7A01-4411-9893-BA9A79EBCF0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F604E25F-E919-4872-9E2A-FBE7F220F52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{031E61C5-F3CF-4191-B28B-B650FDF77711}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>개인석일반</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,10 @@
   </si>
   <si>
     <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,18 +430,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81DF20A-75D7-487F-A27B-FC47A2159858}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="4" max="4" width="19.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -447,8 +452,11 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -458,8 +466,11 @@
       <c r="C2">
         <v>2000</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -469,8 +480,11 @@
       <c r="C3">
         <v>3000</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -480,8 +494,11 @@
       <c r="C4">
         <v>4000</v>
       </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -491,8 +508,11 @@
       <c r="C5">
         <v>6000</v>
       </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -501,6 +521,9 @@
       </c>
       <c r="C6">
         <v>8000</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/StudyRoomProj/DataTable/RoomData.xlsx
+++ b/StudyRoomProj/DataTable/RoomData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmdgh\Desktop\nusang\StudyRoomProj\DataTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F604E25F-E919-4872-9E2A-FBE7F220F52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B213D05F-0351-482A-A970-6675FE22FAB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{031E61C5-F3CF-4191-B28B-B650FDF77711}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17304" windowHeight="12468" xr2:uid="{031E61C5-F3CF-4191-B28B-B650FDF77711}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,27 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>개인석일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인석매너룸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단체석2인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단체석4인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단체석6인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +42,67 @@
   </si>
   <si>
     <t>PersonNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>2인실-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2인실-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2인실-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4인실-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4인실-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6인실-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6인실-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8인실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤워실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노래방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티룸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81DF20A-75D7-487F-A27B-FC47A2159858}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -444,24 +481,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1000</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>2000</v>
@@ -474,11 +511,11 @@
       <c r="A3">
         <v>1001</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -488,47 +525,286 @@
       <c r="A4">
         <v>1002</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1003</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1004</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C8">
+        <v>2500</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2500</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>2500</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>2500</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>2500</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>4000</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>4000</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>4000</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
         <v>8000</v>
       </c>
-      <c r="D6">
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>8000</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>1016</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>10000</v>
+      </c>
+      <c r="D18">
         <v>6</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>1017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>10000</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>1018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>15000</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>1019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>20000</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>1020</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>21000</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>1021</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>22000</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/StudyRoomProj/DataTable/RoomData.xlsx
+++ b/StudyRoomProj/DataTable/RoomData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B213D05F-0351-482A-A970-6675FE22FAB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{24EA4111-28E1-432B-93F8-141FE22780A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17304" windowHeight="12468" xr2:uid="{031E61C5-F3CF-4191-B28B-B650FDF77711}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17340" windowHeight="15975" xr2:uid="{031E61C5-F3CF-4191-B28B-B650FDF77711}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -469,17 +463,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81DF20A-75D7-487F-A27B-FC47A2159858}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.19921875" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -507,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -521,7 +515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -535,7 +529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -549,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -563,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -577,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -591,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -605,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -619,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -633,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -647,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -661,7 +655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -675,7 +669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -689,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -703,7 +697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -717,7 +711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -731,7 +725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -745,7 +739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -759,7 +753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -773,7 +767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -787,7 +781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1021</v>
       </c>
@@ -801,7 +795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StudyRoomProj/DataTable/RoomData.xlsx
+++ b/StudyRoomProj/DataTable/RoomData.xlsx
@@ -1,19 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{24EA4111-28E1-432B-93F8-141FE22780A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17340" windowHeight="15975" xr2:uid="{031E61C5-F3CF-4191-B28B-B650FDF77711}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17340" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,23 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
     <t>2인실-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,13 +79,48 @@
   <si>
     <t>파티룸</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인석-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인석-2</t>
+  </si>
+  <si>
+    <t>개인석-3</t>
+  </si>
+  <si>
+    <t>개인석-4</t>
+  </si>
+  <si>
+    <t>개인석-5</t>
+  </si>
+  <si>
+    <t>개인석-6</t>
+  </si>
+  <si>
+    <t>매너존-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매너존-2</t>
+  </si>
+  <si>
+    <t>매너존-3</t>
+  </si>
+  <si>
+    <t>매너존-4</t>
+  </si>
+  <si>
+    <t>매너존-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -259,7 +275,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -453,27 +469,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81DF20A-75D7-487F-A27B-FC47A2159858}">
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="19.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,12 +503,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1000</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
       <c r="C2">
         <v>2000</v>
@@ -501,12 +517,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1001</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>16</v>
       </c>
       <c r="C3">
         <v>2000</v>
@@ -515,12 +531,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1002</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
       <c r="C4">
         <v>2000</v>
@@ -529,12 +545,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1003</v>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" t="s">
+        <v>18</v>
       </c>
       <c r="C5">
         <v>2000</v>
@@ -543,12 +559,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1004</v>
       </c>
-      <c r="B6">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>19</v>
       </c>
       <c r="C6">
         <v>2000</v>
@@ -557,12 +573,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>1005</v>
       </c>
-      <c r="B7">
-        <v>6</v>
+      <c r="B7" t="s">
+        <v>20</v>
       </c>
       <c r="C7">
         <v>2000</v>
@@ -571,12 +587,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>2500</v>
@@ -585,12 +601,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>1007</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>2500</v>
@@ -599,12 +615,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>2500</v>
@@ -613,12 +629,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>1009</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>2500</v>
@@ -627,12 +643,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>1010</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>2500</v>
@@ -641,12 +657,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>1011</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>4000</v>
@@ -655,12 +671,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>1012</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>4000</v>
@@ -669,12 +685,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>1013</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>4000</v>
@@ -683,12 +699,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>1014</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>8000</v>
@@ -697,12 +713,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>1015</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>8000</v>
@@ -711,12 +727,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>1016</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>10000</v>
@@ -725,12 +741,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>1017</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>10000</v>
@@ -739,12 +755,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>1018</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>15000</v>
@@ -753,12 +769,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>1019</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>20000</v>
@@ -767,12 +783,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>1020</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <v>21000</v>
@@ -781,12 +797,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>1021</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>22000</v>
@@ -795,7 +811,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StudyRoomProj/DataTable/RoomData.xlsx
+++ b/StudyRoomProj/DataTable/RoomData.xlsx
@@ -120,6 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -485,8 +486,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="19.58203125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="16.25" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.58203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -524,8 +525,8 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
-        <v>2000</v>
+      <c r="C3" t="n">
+        <v>2000.0</v>
       </c>
       <c r="D3">
         <v>1</v>

--- a/StudyRoomProj/DataTable/RoomData.xlsx
+++ b/StudyRoomProj/DataTable/RoomData.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\folder\nusangProject\StudyRoomProj\DataTable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776A06BF-5EED-42A0-867E-F11C8DE52327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17340" windowHeight="11020"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+  <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -119,9 +125,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,27 +476,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" customWidth="true" width="16.25" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.58203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,9 +510,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1000</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="n">
+        <v>1000.0</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -518,23 +524,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1001</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="n">
+        <v>1001.0</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="n">
-        <v>2000.0</v>
+      <c r="C3">
+        <v>2000</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>1002</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="n">
+        <v>1002.0</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -546,9 +552,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>1003</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="n">
+        <v>1003.0</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -560,9 +566,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1004</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="n">
+        <v>1004.0</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -574,9 +580,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>1005</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="n">
+        <v>1005.0</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -588,9 +594,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>1006</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="n">
+        <v>1006.0</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -602,9 +608,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>1007</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="n">
+        <v>1007.0</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -616,9 +622,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>1008</v>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="n">
+        <v>1008.0</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -630,9 +636,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>1009</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="n">
+        <v>1009.0</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -644,9 +650,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>1010</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="n">
+        <v>1010.0</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -658,9 +664,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>1011</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="n">
+        <v>1011.0</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -672,9 +678,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>1012</v>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="n">
+        <v>1012.0</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -686,9 +692,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>1013</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="n">
+        <v>1013.0</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -700,9 +706,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>1014</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="n">
+        <v>1014.0</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -714,9 +720,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>1015</v>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="n">
+        <v>1015.0</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -728,9 +734,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>1016</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="n">
+        <v>1016.0</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -742,9 +748,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>1017</v>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="n">
+        <v>1017.0</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -756,9 +762,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>1018</v>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="n">
+        <v>1018.0</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -770,9 +776,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>1019</v>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="n">
+        <v>1019.0</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -784,9 +790,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>1020</v>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="n">
+        <v>1020.0</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -798,9 +804,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>1021</v>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="n">
+        <v>1021.0</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>

--- a/StudyRoomProj/DataTable/RoomData.xlsx
+++ b/StudyRoomProj/DataTable/RoomData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\folder\nusangProject\StudyRoomProj\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776A06BF-5EED-42A0-867E-F11C8DE52327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F46366-BBE9-48DB-891F-173C38217919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="960" windowWidth="10905" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,90 +43,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>개인석-2</t>
+  </si>
+  <si>
+    <t>개인석-3</t>
+  </si>
+  <si>
+    <t>개인석-4</t>
+  </si>
+  <si>
+    <t>개인석-5</t>
+  </si>
+  <si>
+    <t>개인석-6</t>
+  </si>
+  <si>
+    <t>매너존-2</t>
+  </si>
+  <si>
+    <t>매너존-3</t>
+  </si>
+  <si>
+    <t>매너존-4</t>
+  </si>
+  <si>
+    <t>매너존-5</t>
+  </si>
+  <si>
+    <t>개인석-1 테스트</t>
+  </si>
+  <si>
+    <t>매너존-1</t>
+  </si>
+  <si>
     <t>2인실-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2인실-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2인실-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4인실-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4인실-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6인실-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6인실-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8인실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>샤워실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>노래방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>파티룸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>개인석-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인석-2</t>
-  </si>
-  <si>
-    <t>개인석-3</t>
-  </si>
-  <si>
-    <t>개인석-4</t>
-  </si>
-  <si>
-    <t>개인석-5</t>
-  </si>
-  <si>
-    <t>개인석-6</t>
-  </si>
-  <si>
-    <t>매너존-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매너존-2</t>
-  </si>
-  <si>
-    <t>매너존-3</t>
-  </si>
-  <si>
-    <t>매너존-4</t>
-  </si>
-  <si>
-    <t>매너존-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,8 +158,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -230,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -282,7 +280,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -487,12 +485,14 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.25" collapsed="true"/>
+    <col min="1" max="1" style="1" width="9.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="16.25" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="19.625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -511,308 +511,308 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2500.0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>2500.0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>2500.0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>2500.0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>222222.0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
-        <v>2000</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="n">
-        <v>1001.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>2000</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="n">
-        <v>1002.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>2000</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="n">
-        <v>1003.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>2000</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="n">
-        <v>1004.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>2000</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="n">
-        <v>1005.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>2000</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="n">
-        <v>1006.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>2500</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="n">
-        <v>1007.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>2500</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="n">
-        <v>1008.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>2500</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="n">
-        <v>1009.0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>2500</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="n">
-        <v>1010.0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>2500</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="n">
-        <v>1011.0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>4000</v>
+      <c r="C13" s="1" t="n">
+        <v>4000.0</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="n">
-        <v>1012.0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>4000</v>
+      <c r="A14" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>4000.0</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="n">
-        <v>1013.0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>4000</v>
+      <c r="A15" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>4222222.0</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="n">
-        <v>1014.0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>8000</v>
+      <c r="A16" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>8000.0</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="n">
-        <v>1015.0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>8000</v>
+      <c r="A17" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>8000.0</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="n">
-        <v>1016.0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>10000</v>
+      <c r="A18" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>10000.0</v>
       </c>
       <c r="D18">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="n">
-        <v>1017.0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19">
-        <v>10000</v>
+      <c r="A19" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>10000.0</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="n">
-        <v>1018.0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>15000</v>
+      <c r="A20" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>15000.0</v>
       </c>
       <c r="D20">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="n">
-        <v>1019.0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>20000</v>
+      <c r="A21" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>20000.0</v>
       </c>
       <c r="D21">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="n">
-        <v>1020.0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22">
-        <v>21000</v>
+      <c r="A22" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>21000.0</v>
       </c>
       <c r="D22">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="n">
-        <v>1021.0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23">
-        <v>22000</v>
+      <c r="A23" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>22000.0</v>
       </c>
       <c r="D23">
         <v>10</v>

--- a/StudyRoomProj/DataTable/RoomData.xlsx
+++ b/StudyRoomProj/DataTable/RoomData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -658,7 +658,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>222222.0</v>
+        <v>2500.0</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>4222222.0</v>
+        <v>4000.0</v>
       </c>
       <c r="D15">
         <v>2</v>

--- a/StudyRoomProj/DataTable/RoomData.xlsx
+++ b/StudyRoomProj/DataTable/RoomData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>

--- a/StudyRoomProj/DataTable/RoomData.xlsx
+++ b/StudyRoomProj/DataTable/RoomData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>

--- a/StudyRoomProj/DataTable/RoomData.xlsx
+++ b/StudyRoomProj/DataTable/RoomData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,7 +518,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2000.0</v>
+        <v>2444.0</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -812,7 +812,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>22000.0</v>
+        <v>22444.0</v>
       </c>
       <c r="D23">
         <v>10</v>

--- a/StudyRoomProj/DataTable/RoomData.xlsx
+++ b/StudyRoomProj/DataTable/RoomData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,7 +518,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2444.0</v>
+        <v>2000.0</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -812,7 +812,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>22444.0</v>
+        <v>22000.0</v>
       </c>
       <c r="D23">
         <v>10</v>
